--- a/MarsSeleniumStandard/ExcelData/ShareSkill.xlsx
+++ b/MarsSeleniumStandard/ExcelData/ShareSkill.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHUSHBU\TESTING\PROJECTS\MarsSeleniumStandard\MarsSeleniumStandard\MarsSeleniumStandard\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9E9B71-668B-4E50-89F2-68AECD1F34F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F77EE3D-0FB1-42D4-AD4E-2FF2CBB19D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="SignUp" sheetId="3" r:id="rId2"/>
+    <sheet name="ManageListings" sheetId="5" r:id="rId3"/>
+    <sheet name="EditShareSkill" sheetId="6" r:id="rId4"/>
+    <sheet name="ShareSkill" sheetId="4" r:id="rId5"/>
+    <sheet name="Profile" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>Url</t>
   </si>
@@ -33,9 +36,45 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>CertifiedFrom</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>AvailableTime</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -48,82 +87,103 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
     <t>Category</t>
   </si>
   <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
     <t>Tags</t>
   </si>
   <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
     <t>Credit</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Selenium</t>
   </si>
   <si>
     <t>Would like to provide selenium training for beginners</t>
   </si>
   <si>
-    <t>Skill-Exchange</t>
-  </si>
-  <si>
-    <t>SubCategory</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Programming &amp; Tech</t>
   </si>
   <si>
     <t>One-off service</t>
   </si>
   <si>
-    <t>ServiceType</t>
-  </si>
-  <si>
-    <t>LocationType</t>
-  </si>
-  <si>
-    <t>Startdate</t>
-  </si>
-  <si>
-    <t>Enddate</t>
-  </si>
-  <si>
-    <t>Starttime</t>
-  </si>
-  <si>
-    <t>Endtime</t>
-  </si>
-  <si>
-    <t>SkillTrade</t>
-  </si>
-  <si>
     <t>On-site</t>
   </si>
   <si>
+    <t>Mon</t>
+  </si>
+  <si>
     <t>Performance Testing</t>
   </si>
   <si>
     <t>Hidden</t>
   </si>
   <si>
-    <t>Selectday</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>http://localhost:5000/</t>
+    <t>Deleteaction</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Would like to provide Python training for beginners</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile App</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>19:00:00 PM</t>
   </si>
   <si>
     <t>Khush</t>
@@ -138,16 +198,28 @@
     <t>Khush@123</t>
   </si>
   <si>
-    <t>19:00:00 PM</t>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>GTU</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>2 years as Manual Tester and Administration and Report Analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,9 +276,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,6 +617,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -557,220 +683,432 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{76FBD949-B407-4C32-89D1-C1119FB8AC21}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{98B999BC-665D-431D-91DC-6F65260D70DB}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C225258D-806F-4CEC-9B8A-E1AAD90C1CBB}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{43C38FE4-5A72-4C1E-BD5F-530EF4FE4D4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C435061D-5197-4A8C-9AE0-B97AB37D0BF9}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2C0763-148D-4F1B-AC04-51789190BC64}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1"/>
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3">
         <v>44663</v>
       </c>
       <c r="I2" s="3">
         <v>44724</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4">
         <v>0.75</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>38</v>
+      <c r="L2" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AED40C2-E387-420A-8307-8C19194F1444}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44663</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44724</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="68.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MarsSeleniumStandard/ExcelData/ShareSkill.xlsx
+++ b/MarsSeleniumStandard/ExcelData/ShareSkill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHUSHBU\TESTING\PROJECTS\MarsSeleniumStandard\MarsSeleniumStandard\MarsSeleniumStandard\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F77EE3D-0FB1-42D4-AD4E-2FF2CBB19D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A246081-8FEE-4DA5-B41F-24E2ED5EA3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Url</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>2 years as Manual Tester and Administration and Report Analyst</t>
+  </si>
+  <si>
+    <t>Software Testing</t>
   </si>
 </sst>
 </file>
@@ -764,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2C0763-148D-4F1B-AC04-51789190BC64}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -774,7 +777,7 @@
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -788,7 +791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -896,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AED40C2-E387-420A-8307-8C19194F1444}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,10 +923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -983,7 +986,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
